--- a/excel_files/report.xlsx
+++ b/excel_files/report.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,25 +418,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>伊朗</t>
+          <t>科威特</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伊朗</t>
+          <t>科威特</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>30867</v>
+        <v>1887</v>
       </c>
       <c r="E2" t="n">
-        <v>67286</v>
+        <v>2399</v>
       </c>
       <c r="F2" t="n">
-        <v>32309</v>
+        <v>498</v>
       </c>
       <c r="G2" t="n">
-        <v>4110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -447,25 +447,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>亚美尼亚</t>
+          <t>马来西亚</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>亚美尼亚</t>
+          <t>马来西亚</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>773</v>
+        <v>1966</v>
       </c>
       <c r="E3" t="n">
-        <v>921</v>
+        <v>5603</v>
       </c>
       <c r="F3" t="n">
-        <v>138</v>
+        <v>3542</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -476,25 +476,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>马来西亚</t>
+          <t>印度尼西亚</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>马来西亚</t>
+          <t>印度尼西亚</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2553</v>
+        <v>6168</v>
       </c>
       <c r="E4" t="n">
-        <v>4228</v>
+        <v>7775</v>
       </c>
       <c r="F4" t="n">
-        <v>1608</v>
+        <v>960</v>
       </c>
       <c r="G4" t="n">
-        <v>67</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5">
@@ -505,25 +505,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>印度尼西亚</t>
+          <t>马尔代夫</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>印度尼西亚</t>
+          <t>马尔代夫</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2949</v>
+        <v>78</v>
       </c>
       <c r="E5" t="n">
-        <v>3293</v>
+        <v>94</v>
       </c>
       <c r="F5" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -534,25 +534,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>以色列</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>以色列</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8906</v>
+        <v>5797</v>
       </c>
       <c r="E6" t="n">
-        <v>9755</v>
+        <v>6981</v>
       </c>
       <c r="F6" t="n">
-        <v>770</v>
+        <v>722</v>
       </c>
       <c r="G6" t="n">
-        <v>79</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7">
@@ -563,25 +563,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>卡塔尔</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>卡塔尔</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>676</v>
+        <v>7004</v>
       </c>
       <c r="E7" t="n">
-        <v>973</v>
+        <v>7764</v>
       </c>
       <c r="F7" t="n">
-        <v>293</v>
+        <v>750</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -592,25 +592,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>格鲁吉亚</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>格鲁吉亚</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2175</v>
+        <v>308</v>
       </c>
       <c r="E8" t="n">
-        <v>83264</v>
+        <v>420</v>
       </c>
       <c r="F8" t="n">
-        <v>77745</v>
+        <v>107</v>
       </c>
       <c r="G8" t="n">
-        <v>3344</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -621,25 +621,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>巴基斯坦</t>
+          <t>伊拉克</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>巴基斯坦</t>
+          <t>伊拉克</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3547</v>
+        <v>402</v>
       </c>
       <c r="E9" t="n">
-        <v>4072</v>
+        <v>1631</v>
       </c>
       <c r="F9" t="n">
-        <v>467</v>
+        <v>1146</v>
       </c>
       <c r="G9" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -650,25 +650,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>斯里兰卡</t>
+          <t>巴基斯坦</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>斯里兰卡</t>
+          <t>巴基斯坦</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>139</v>
+        <v>7952</v>
       </c>
       <c r="E10" t="n">
-        <v>188</v>
+        <v>10513</v>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>2337</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11">
@@ -679,25 +679,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>孟加拉国</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>孟加拉国</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>2051</v>
       </c>
       <c r="E11" t="n">
-        <v>164</v>
+        <v>10702</v>
       </c>
       <c r="F11" t="n">
-        <v>33</v>
+        <v>8411</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
@@ -708,25 +708,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>菲律宾</t>
+          <t>乌兹别克斯坦</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>菲律宾</t>
+          <t>乌兹别克斯坦</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3749</v>
+        <v>1426</v>
       </c>
       <c r="E12" t="n">
-        <v>4076</v>
+        <v>1657</v>
       </c>
       <c r="F12" t="n">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="G12" t="n">
-        <v>203</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -737,25 +737,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>文莱</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文莱</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>425</v>
       </c>
       <c r="E13" t="n">
-        <v>135</v>
+        <v>925</v>
       </c>
       <c r="F13" t="n">
-        <v>65</v>
+        <v>487</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -766,25 +766,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>阿富汗</t>
+          <t>以色列</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>阿富汗</t>
+          <t>以色列</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>430</v>
+        <v>9067</v>
       </c>
       <c r="E14" t="n">
-        <v>444</v>
+        <v>14592</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5334</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
@@ -795,25 +795,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>伊拉克</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伊拉克</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>681</v>
+        <v>1474</v>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>84305</v>
       </c>
       <c r="F15" t="n">
-        <v>452</v>
+        <v>78189</v>
       </c>
       <c r="G15" t="n">
-        <v>69</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="16">
@@ -824,22 +824,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>阿联酋</t>
+          <t>新加坡</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>阿联酋</t>
+          <t>新加坡</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2408</v>
+        <v>10483</v>
       </c>
       <c r="E16" t="n">
-        <v>2659</v>
+        <v>11178</v>
       </c>
       <c r="F16" t="n">
-        <v>239</v>
+        <v>683</v>
       </c>
       <c r="G16" t="n">
         <v>12</v>
@@ -853,25 +853,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>新加坡</t>
+          <t>阿曼</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>新加坡</t>
+          <t>阿曼</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1210</v>
+        <v>1401</v>
       </c>
       <c r="E17" t="n">
-        <v>1623</v>
+        <v>1716</v>
       </c>
       <c r="F17" t="n">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -882,25 +882,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>伊朗</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>台湾</t>
+          <t>伊朗</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>308</v>
+        <v>16702</v>
       </c>
       <c r="E18" t="n">
-        <v>380</v>
+        <v>87026</v>
       </c>
       <c r="F18" t="n">
-        <v>67</v>
+        <v>64843</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="19">
@@ -911,25 +911,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>阿曼</t>
+          <t>印度</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>阿曼</t>
+          <t>印度</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>346</v>
+        <v>16454</v>
       </c>
       <c r="E19" t="n">
-        <v>457</v>
+        <v>21393</v>
       </c>
       <c r="F19" t="n">
-        <v>109</v>
+        <v>4258</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>681</v>
       </c>
     </row>
     <row r="20">
@@ -940,22 +940,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>斯里兰卡</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上海市</t>
+          <t>斯里兰卡</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="E20" t="n">
-        <v>552</v>
+        <v>330</v>
       </c>
       <c r="F20" t="n">
-        <v>422</v>
+        <v>105</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
@@ -969,25 +969,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>柬埔寨</t>
+          <t>泰国</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>柬埔寨</t>
+          <t>泰国</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>359</v>
       </c>
       <c r="E21" t="n">
-        <v>115</v>
+        <v>2839</v>
       </c>
       <c r="F21" t="n">
+        <v>2430</v>
+      </c>
+      <c r="G21" t="n">
         <v>50</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -998,25 +998,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>巴林</t>
+          <t>哈萨克斯坦</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>巴林</t>
+          <t>哈萨克斯坦</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>349</v>
+        <v>1657</v>
       </c>
       <c r="E22" t="n">
-        <v>821</v>
+        <v>2191</v>
       </c>
       <c r="F22" t="n">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1027,25 +1027,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>乌兹别克斯坦</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>乌兹别克斯坦</t>
+          <t>上海市</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>501</v>
+        <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>534</v>
+        <v>640</v>
       </c>
       <c r="F23" t="n">
-        <v>30</v>
+        <v>533</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1056,25 +1056,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>尼泊尔</t>
+          <t>塞浦路斯</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>尼泊尔</t>
+          <t>塞浦路斯</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>773</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>790</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1085,25 +1085,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>巴勒斯坦</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>巴勒斯坦</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>241</v>
+        <v>10655</v>
       </c>
       <c r="E25" t="n">
-        <v>263</v>
+        <v>12023</v>
       </c>
       <c r="F25" t="n">
-        <v>21</v>
+        <v>1069</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26">
@@ -1114,25 +1114,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>土耳其</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>土耳其</t>
+          <t>台湾</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>35568</v>
+        <v>168</v>
       </c>
       <c r="E26" t="n">
-        <v>38226</v>
+        <v>427</v>
       </c>
       <c r="F26" t="n">
-        <v>1846</v>
+        <v>253</v>
       </c>
       <c r="G26" t="n">
-        <v>812</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1143,25 +1143,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>格鲁吉亚</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>格鲁吉亚</t>
+          <t>澳门</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="E27" t="n">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="F27" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1172,25 +1172,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>不丹</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>不丹</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>332</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>1035</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>699</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1201,25 +1201,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>黎巴嫩</t>
+          <t>约旦</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>黎巴嫩</t>
+          <t>约旦</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>494</v>
+        <v>131</v>
       </c>
       <c r="E29" t="n">
-        <v>575</v>
+        <v>435</v>
       </c>
       <c r="F29" t="n">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="G29" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1230,25 +1230,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>印度</t>
+          <t>黎巴嫩</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>印度</t>
+          <t>黎巴嫩</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5095</v>
+        <v>552</v>
       </c>
       <c r="E30" t="n">
-        <v>5734</v>
+        <v>682</v>
       </c>
       <c r="F30" t="n">
-        <v>473</v>
+        <v>108</v>
       </c>
       <c r="G30" t="n">
-        <v>166</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1259,25 +1259,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>科威特</t>
+          <t>亚美尼亚</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>科威特</t>
+          <t>亚美尼亚</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>742</v>
+        <v>816</v>
       </c>
       <c r="E31" t="n">
-        <v>855</v>
+        <v>1473</v>
       </c>
       <c r="F31" t="n">
-        <v>112</v>
+        <v>633</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -1288,25 +1288,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>韩国</t>
+          <t>孟加拉国</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>韩国</t>
+          <t>孟加拉国</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3246</v>
+        <v>3187</v>
       </c>
       <c r="E32" t="n">
-        <v>10423</v>
+        <v>3382</v>
       </c>
       <c r="F32" t="n">
-        <v>6973</v>
+        <v>85</v>
       </c>
       <c r="G32" t="n">
-        <v>204</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -1317,25 +1317,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>泰国</t>
+          <t>柬埔寨</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>泰国</t>
+          <t>柬埔寨</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1451</v>
+        <v>72</v>
       </c>
       <c r="E33" t="n">
-        <v>2423</v>
+        <v>122</v>
       </c>
       <c r="F33" t="n">
-        <v>940</v>
+        <v>50</v>
       </c>
       <c r="G33" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1346,25 +1346,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>老挝</t>
+          <t>巴勒斯坦</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>老挝</t>
+          <t>巴勒斯坦</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>361</v>
       </c>
       <c r="E34" t="n">
-        <v>15</v>
+        <v>441</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1375,25 +1375,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>卡塔尔</t>
+          <t>土耳其</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>卡塔尔</t>
+          <t>土耳其</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2026</v>
+        <v>79821</v>
       </c>
       <c r="E35" t="n">
-        <v>2210</v>
+        <v>98674</v>
       </c>
       <c r="F35" t="n">
-        <v>178</v>
+        <v>16477</v>
       </c>
       <c r="G35" t="n">
-        <v>6</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="36">
@@ -1404,25 +1404,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>阿塞拜疆</t>
+          <t>阿富汗</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>阿塞拜疆</t>
+          <t>阿富汗</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>751</v>
+        <v>972</v>
       </c>
       <c r="E36" t="n">
-        <v>822</v>
+        <v>1143</v>
       </c>
       <c r="F36" t="n">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -1433,25 +1433,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>叙利亚</t>
+          <t>尼泊尔</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>叙利亚</t>
+          <t>尼泊尔</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E37" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F37" t="n">
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1462,25 +1462,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>约旦</t>
+          <t>巴林</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>约旦</t>
+          <t>巴林</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>202</v>
+        <v>976</v>
       </c>
       <c r="E38" t="n">
-        <v>358</v>
+        <v>2009</v>
       </c>
       <c r="F38" t="n">
-        <v>150</v>
+        <v>1026</v>
       </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1491,25 +1491,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>吉尔吉斯斯坦</t>
+          <t>文莱</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>吉尔吉斯斯坦</t>
+          <t>文莱</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="E39" t="n">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="F39" t="n">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1520,25 +1520,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>日本</t>
+          <t>缅甸</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>日本</t>
+          <t>缅甸</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4451</v>
+        <v>113</v>
       </c>
       <c r="E40" t="n">
-        <v>4953</v>
+        <v>127</v>
       </c>
       <c r="F40" t="n">
-        <v>404</v>
+        <v>9</v>
       </c>
       <c r="G40" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E41" t="n">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F41" t="n">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>塞浦路斯</t>
+          <t>沙特阿拉伯</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>塞浦路斯</t>
+          <t>沙特阿拉伯</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>512</v>
+        <v>10851</v>
       </c>
       <c r="E42" t="n">
-        <v>526</v>
+        <v>12772</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1812</v>
       </c>
       <c r="G42" t="n">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43">
@@ -1607,25 +1607,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>哈萨克斯坦</t>
+          <t>蒙古</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>哈萨克斯坦</t>
+          <t>蒙古</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>652</v>
+        <v>29</v>
       </c>
       <c r="E43" t="n">
-        <v>709</v>
+        <v>34</v>
       </c>
       <c r="F43" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1636,25 +1636,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>马尔代夫</t>
+          <t>阿塞拜疆</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>马尔代夫</t>
+          <t>阿塞拜疆</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>591</v>
       </c>
       <c r="E44" t="n">
-        <v>19</v>
+        <v>1518</v>
       </c>
       <c r="F44" t="n">
-        <v>13</v>
+        <v>907</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -1665,25 +1665,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>吉尔吉斯斯坦</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>吉尔吉斯斯坦</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>27</v>
+        <v>404</v>
       </c>
       <c r="E45" t="n">
-        <v>182</v>
+        <v>612</v>
       </c>
       <c r="F45" t="n">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1694,25 +1694,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>缅甸</t>
+          <t>阿联酋</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>缅甸</t>
+          <t>阿联酋</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>18</v>
+        <v>6640</v>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>8238</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>1546</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47">
@@ -1723,25 +1723,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>蒙古</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>蒙古</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -1752,25 +1752,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>沙特阿拉伯</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>沙特阿拉伯</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2260</v>
+        <v>13</v>
       </c>
       <c r="E48" t="n">
-        <v>2932</v>
+        <v>1268</v>
       </c>
       <c r="F48" t="n">
-        <v>631</v>
+        <v>1254</v>
       </c>
       <c r="G48" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1786,20 +1786,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>湖北省</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E49" t="n">
-        <v>126</v>
+        <v>68128</v>
       </c>
       <c r="F49" t="n">
-        <v>79</v>
+        <v>63547</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="50">
@@ -1815,20 +1815,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>139</v>
+        <v>561</v>
       </c>
       <c r="F50" t="n">
-        <v>135</v>
+        <v>557</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>1267</v>
+        <v>107</v>
       </c>
       <c r="F51" t="n">
-        <v>1235</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -1873,20 +1873,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>湖北省</t>
+          <t>北京市</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>401</v>
+        <v>63</v>
       </c>
       <c r="E52" t="n">
-        <v>67803</v>
+        <v>593</v>
       </c>
       <c r="F52" t="n">
-        <v>64187</v>
+        <v>522</v>
       </c>
       <c r="G52" t="n">
-        <v>3215</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -1906,13 +1906,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="E53" t="n">
-        <v>1539</v>
+        <v>1584</v>
       </c>
       <c r="F53" t="n">
-        <v>1423</v>
+        <v>1518</v>
       </c>
       <c r="G53" t="n">
         <v>8</v>
@@ -1931,20 +1931,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E54" t="n">
-        <v>991</v>
+        <v>197</v>
       </c>
       <c r="F54" t="n">
-        <v>984</v>
+        <v>142</v>
       </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1955,25 +1955,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>不丹</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>不丹</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1984,25 +1984,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>东帝汶</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>东帝汶</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E56" t="n">
-        <v>327</v>
+        <v>23</v>
       </c>
       <c r="F56" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2013,25 +2013,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>叙利亚</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>黑龙江省</t>
+          <t>叙利亚</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="E57" t="n">
-        <v>609</v>
+        <v>42</v>
       </c>
       <c r="F57" t="n">
-        <v>470</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -2047,20 +2047,20 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E58" t="n">
-        <v>783</v>
+        <v>279</v>
       </c>
       <c r="F58" t="n">
-        <v>756</v>
+        <v>253</v>
       </c>
       <c r="G58" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -2076,20 +2076,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>福建省</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>166</v>
+        <v>355</v>
       </c>
       <c r="F59" t="n">
-        <v>134</v>
+        <v>342</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2105,20 +2105,20 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>福建省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>351</v>
+        <v>653</v>
       </c>
       <c r="F60" t="n">
-        <v>308</v>
+        <v>645</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2134,20 +2134,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>吉林省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E61" t="n">
-        <v>98</v>
+        <v>787</v>
       </c>
       <c r="F61" t="n">
-        <v>93</v>
+        <v>766</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -2158,22 +2158,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>老挝</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>澳门</t>
+          <t>老挝</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E62" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2187,25 +2187,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>也门共和国</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>也门共和国</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2221,20 +2221,20 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="E64" t="n">
-        <v>560</v>
+        <v>194</v>
       </c>
       <c r="F64" t="n">
-        <v>541</v>
+        <v>108</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2250,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>云南省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F65" t="n">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2279,20 +2279,20 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="F66" t="n">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -2308,20 +2308,20 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>147</v>
+      </c>
+      <c r="F67" t="n">
+        <v>145</v>
+      </c>
+      <c r="G67" t="n">
         <v>2</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1276</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1252</v>
-      </c>
-      <c r="G67" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="68">
@@ -2332,25 +2332,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>东帝汶</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东帝汶</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2366,20 +2366,20 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>651</v>
+        <v>1019</v>
       </c>
       <c r="F69" t="n">
-        <v>633</v>
+        <v>1015</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -2395,20 +2395,20 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>湖南省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1019</v>
+        <v>139</v>
       </c>
       <c r="F70" t="n">
-        <v>1014</v>
+        <v>137</v>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2424,20 +2424,20 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>广西壮族自治区</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>254</v>
+        <v>1276</v>
       </c>
       <c r="F71" t="n">
-        <v>252</v>
+        <v>1254</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>937</v>
       </c>
       <c r="F72" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2482,17 +2482,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>579</v>
+        <v>991</v>
       </c>
       <c r="F73" t="n">
-        <v>570</v>
+        <v>984</v>
       </c>
       <c r="G73" t="n">
         <v>6</v>
@@ -2511,20 +2511,20 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海南省</t>
+          <t>广西壮族自治区</t>
         </is>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="F74" t="n">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="G74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2540,20 +2540,20 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>贵州省</t>
+          <t>重庆市</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>146</v>
+        <v>579</v>
       </c>
       <c r="F75" t="n">
-        <v>144</v>
+        <v>570</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -2569,20 +2569,20 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>宁夏回族自治区</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F76" t="n">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -2598,20 +2598,20 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>新疆维吾尔自治区</t>
+          <t>宁夏回族自治区</t>
         </is>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F77" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2627,20 +2627,20 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>西藏自治区</t>
+          <t>新疆维吾尔自治区</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -2656,19 +2656,48 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>西藏自治区</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>青海省</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
         <v>18</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F80" t="n">
         <v>18</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2745,7 +2774,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" t="n">
         <v>712</v>
@@ -2754,7 +2783,7 @@
         <v>574</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -2850,25 +2879,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>哥斯达黎加</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>哥斯达黎加</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>393505</v>
+        <v>656</v>
       </c>
       <c r="E2" t="n">
-        <v>432438</v>
+        <v>662</v>
       </c>
       <c r="F2" t="n">
-        <v>24125</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14808</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2879,25 +2908,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>墨西哥</t>
+          <t>马提尼克</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>墨西哥</t>
+          <t>马提尼克</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3006</v>
+        <v>149</v>
       </c>
       <c r="E3" t="n">
-        <v>3181</v>
+        <v>163</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>174</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -2908,25 +2937,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>马提尼克</t>
+          <t>墨西哥</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>马提尼克</t>
+          <t>墨西哥</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>147</v>
+        <v>9573</v>
       </c>
       <c r="E4" t="n">
-        <v>151</v>
+        <v>10544</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
@@ -2937,25 +2966,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>危地马拉</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>危地马拉</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>74</v>
+        <v>719225</v>
       </c>
       <c r="E5" t="n">
-        <v>77</v>
+        <v>842624</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>76614</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>46785</v>
       </c>
     </row>
     <row r="6">
@@ -2966,25 +2995,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>多米尼克</t>
+          <t>古巴</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>多米尼克</t>
+          <t>古巴</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>1099</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>1137</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -2995,25 +3024,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>库拉索岛</t>
+          <t>加拿大</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>库拉索岛</t>
+          <t>加拿大</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>24231</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>40191</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>13986</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="8">
@@ -3024,25 +3053,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>蒙特塞拉特</t>
+          <t>荷属圣马丁</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>蒙特塞拉特</t>
+          <t>荷属圣马丁</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -3053,25 +3082,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>巴哈马</t>
+          <t>牙买加</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>巴哈马</t>
+          <t>牙买加</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -3082,25 +3111,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>巴巴多斯</t>
+          <t>巴拿马</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>巴巴多斯</t>
+          <t>巴拿马</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>58</v>
+        <v>4518</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>4658</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
@@ -3111,25 +3140,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>特克斯和凯科斯群岛</t>
+          <t>美属维尔京群岛</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>特克斯和凯科斯群岛</t>
+          <t>美属维尔京群岛</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -3140,25 +3169,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>安圭拉</t>
+          <t>特立尼达和多巴哥</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安圭拉</t>
+          <t>特立尼达和多巴哥</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -3169,25 +3198,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>巴拿马</t>
+          <t>危地马拉</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>巴拿马</t>
+          <t>危地马拉</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2041</v>
+        <v>285</v>
       </c>
       <c r="E13" t="n">
-        <v>2100</v>
+        <v>294</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -3198,25 +3227,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>阿鲁巴</t>
+          <t>巴哈马</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>阿鲁巴</t>
+          <t>巴哈马</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E14" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -3227,19 +3256,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>牙买加</t>
+          <t>海地</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>牙买加</t>
+          <t>海地</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -3256,25 +3285,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>圣巴泰勒米岛</t>
+          <t>波多黎各</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>圣巴泰勒米岛</t>
+          <t>波多黎各</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>1234</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>1298</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
@@ -3285,25 +3314,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>荷属圣马丁</t>
+          <t>尼加拉瓜</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>荷属圣马丁</t>
+          <t>尼加拉瓜</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -3314,25 +3343,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>格林那达</t>
+          <t>多米尼加</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>格林那达</t>
+          <t>多米尼加</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>4799</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>5044</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19">
@@ -3343,25 +3372,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>美属维尔京群岛</t>
+          <t>洪都拉斯</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美属维尔京群岛</t>
+          <t>洪都拉斯</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>448</v>
       </c>
       <c r="E19" t="n">
-        <v>43</v>
+        <v>494</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -3372,25 +3401,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>哥斯达黎加</t>
+          <t>萨尔瓦多</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>哥斯达黎加</t>
+          <t>萨尔瓦多</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>465</v>
+        <v>218</v>
       </c>
       <c r="E20" t="n">
-        <v>467</v>
+        <v>225</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -3401,25 +3430,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>特立尼达和多巴哥</t>
+          <t>开曼群岛</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>特立尼达和多巴哥</t>
+          <t>开曼群岛</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E21" t="n">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -3430,25 +3459,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>多米尼加</t>
+          <t>瓜德罗普岛</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>多米尼加</t>
+          <t>瓜德罗普岛</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1858</v>
+        <v>136</v>
       </c>
       <c r="E22" t="n">
-        <v>1956</v>
+        <v>148</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -3459,25 +3488,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>洪都拉斯</t>
+          <t>阿鲁巴</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>洪都拉斯</t>
+          <t>阿鲁巴</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>320</v>
+        <v>95</v>
       </c>
       <c r="E23" t="n">
-        <v>343</v>
+        <v>97</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -3488,25 +3517,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>萨尔瓦多</t>
+          <t>英属维尔京群岛</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>萨尔瓦多</t>
+          <t>英属维尔京群岛</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -3517,25 +3546,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>圣皮埃尔和密克隆群岛</t>
+          <t>百慕大</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>圣皮埃尔和密克隆群岛</t>
+          <t>百慕大</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -3546,25 +3575,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>安提瓜和巴布达</t>
+          <t>圣马丁岛</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>安提瓜和巴布达</t>
+          <t>圣马丁岛</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -3575,25 +3604,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>加拿大</t>
+          <t>安提瓜和巴布达</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>加拿大</t>
+          <t>安提瓜和巴布达</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>16074</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>19279</v>
+        <v>23</v>
       </c>
       <c r="F27" t="n">
-        <v>2770</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -3604,25 +3633,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>瓜德罗普岛</t>
+          <t>圣其茨和尼维斯</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>瓜德罗普岛</t>
+          <t>圣其茨和尼维斯</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3633,25 +3662,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>圣其茨和尼维斯</t>
+          <t>特克斯和凯科斯群岛</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>圣其茨和尼维斯</t>
+          <t>特克斯和凯科斯群岛</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3662,25 +3691,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>开曼群岛</t>
+          <t>巴巴多斯</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>开曼群岛</t>
+          <t>巴巴多斯</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -3691,19 +3720,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>格陵兰</t>
+          <t>格林那达</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>格陵兰</t>
+          <t>格林那达</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3720,25 +3749,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>古巴</t>
+          <t>圣巴泰勒米岛</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>古巴</t>
+          <t>圣巴泰勒米岛</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>385</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>396</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3749,25 +3778,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>圣马丁岛</t>
+          <t>安圭拉</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>圣马丁岛</t>
+          <t>安圭拉</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3778,19 +3807,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>圣卢西亚</t>
+          <t>多米尼克</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>圣卢西亚</t>
+          <t>多米尼克</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3807,25 +3836,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>波多黎各</t>
+          <t>库拉索岛</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>波多黎各</t>
+          <t>库拉索岛</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>550</v>
+        <v>13</v>
       </c>
       <c r="E35" t="n">
-        <v>573</v>
+        <v>14</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3836,25 +3865,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>尼加拉瓜</t>
+          <t>蒙特塞拉特</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>尼加拉瓜</t>
+          <t>蒙特塞拉特</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3874,16 +3903,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3894,25 +3923,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>海地</t>
+          <t>圣文森特和格林纳丁斯</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海地</t>
+          <t>圣文森特和格林纳丁斯</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3923,19 +3952,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>英属维尔京群岛</t>
+          <t>圣皮埃尔和密克隆群岛</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>英属维尔京群岛</t>
+          <t>圣皮埃尔和密克隆群岛</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3952,19 +3981,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>圣文森特和格林纳丁斯</t>
+          <t>格陵兰</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>圣文森特和格林纳丁斯</t>
+          <t>格陵兰</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3981,25 +4010,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>百慕大</t>
+          <t>圣卢西亚</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>百慕大</t>
+          <t>圣卢西亚</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4095,25 +4124,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>厄瓜多尔</t>
+          <t>智利</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>厄瓜多尔</t>
+          <t>智利</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4068</v>
+        <v>5750</v>
       </c>
       <c r="E2" t="n">
-        <v>4450</v>
+        <v>11296</v>
       </c>
       <c r="F2" t="n">
-        <v>140</v>
+        <v>5386</v>
       </c>
       <c r="G2" t="n">
-        <v>242</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -4124,25 +4153,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>阿根廷</t>
+          <t>哥伦比亚</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>阿根廷</t>
+          <t>哥伦比亚</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1372</v>
+        <v>4065</v>
       </c>
       <c r="E3" t="n">
-        <v>1795</v>
+        <v>4356</v>
       </c>
       <c r="F3" t="n">
-        <v>358</v>
+        <v>85</v>
       </c>
       <c r="G3" t="n">
-        <v>65</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4">
@@ -4153,25 +4182,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>玻利维亚</t>
+          <t>厄瓜多尔</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>玻利维亚</t>
+          <t>厄瓜多尔</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>180</v>
+        <v>9377</v>
       </c>
       <c r="E4" t="n">
-        <v>194</v>
+        <v>10398</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5">
@@ -4182,25 +4211,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>乌拉圭</t>
+          <t>秘鲁</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>乌拉圭</t>
+          <t>秘鲁</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>257</v>
+        <v>11693</v>
       </c>
       <c r="E5" t="n">
-        <v>456</v>
+        <v>19250</v>
       </c>
       <c r="F5" t="n">
-        <v>192</v>
+        <v>7027</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6">
@@ -4211,25 +4240,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>巴拉圭</t>
+          <t>委内瑞拉</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>巴拉圭</t>
+          <t>委内瑞拉</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c r="E6" t="n">
-        <v>115</v>
+        <v>285</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -4240,25 +4269,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>智利</t>
+          <t>苏里南</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>智利</t>
+          <t>苏里南</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4383</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>5546</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>1115</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -4269,25 +4298,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>荷兰加勒比地区</t>
+          <t>巴拉圭</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>荷兰加勒比地区</t>
+          <t>巴拉圭</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -4298,25 +4327,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>哥伦比亚</t>
+          <t>玻利维亚</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>哥伦比亚</t>
+          <t>玻利维亚</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1915</v>
+        <v>564</v>
       </c>
       <c r="E9" t="n">
-        <v>2054</v>
+        <v>598</v>
       </c>
       <c r="F9" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -4327,25 +4356,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>福克兰群岛</t>
+          <t>巴西</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>福克兰群岛</t>
+          <t>巴西</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>17533</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>45757</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25318</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="11">
@@ -4356,25 +4385,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>委内瑞拉</t>
+          <t>阿根廷</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>委内瑞拉</t>
+          <t>阿根廷</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>158</v>
+        <v>2392</v>
       </c>
       <c r="E11" t="n">
-        <v>165</v>
+        <v>3288</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -4385,25 +4414,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>法属圭亚那</t>
+          <t>乌拉圭</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>法属圭亚那</t>
+          <t>乌拉圭</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>72</v>
+        <v>549</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -4414,19 +4443,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>苏里南</t>
+          <t>法属圭亚那</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>苏里南</t>
+          <t>法属圭亚那</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -4452,16 +4481,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -4472,25 +4501,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>秘鲁</t>
+          <t>荷兰加勒比地区</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>秘鲁</t>
+          <t>荷兰加勒比地区</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2980</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>4332</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>1231</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4501,25 +4530,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>巴西</t>
+          <t>福克兰群岛</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>巴西</t>
+          <t>福克兰群岛</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15000</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>15927</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4586,25 +4615,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>斐济</t>
+          <t>澳大利亚</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斐济</t>
+          <t>澳大利亚</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>2282</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>6647</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4291</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -4615,25 +4644,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>北马里亚纳群岛联邦</t>
+          <t>新西兰</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北马里亚纳群岛联邦</t>
+          <t>新西兰</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>1112</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -4653,10 +4682,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E4" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4682,16 +4711,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E5" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4702,25 +4731,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>澳大利亚</t>
+          <t>斐济</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>澳大利亚</t>
+          <t>斐济</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5883</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>6052</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4731,25 +4760,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>新西兰</t>
+          <t>北马里亚纳群岛联邦</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新西兰</t>
+          <t>北马里亚纳群岛联邦</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>674</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>992</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -4760,19 +4789,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>新喀里多尼亚</t>
+          <t>巴布亚新几内亚</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新喀里多尼亚</t>
+          <t>巴布亚新几内亚</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -4789,19 +4818,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>巴布亚新几内亚</t>
+          <t>新喀里多尼亚</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>巴布亚新几内亚</t>
+          <t>新喀里多尼亚</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -4874,25 +4903,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>西班牙</t>
+          <t>圣马力诺</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西班牙</t>
+          <t>圣马力诺</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>89187</v>
+        <v>434</v>
       </c>
       <c r="E2" t="n">
-        <v>152446</v>
+        <v>476</v>
       </c>
       <c r="F2" t="n">
-        <v>48021</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>15238</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -4903,25 +4932,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>匈牙利</t>
+          <t>根西岛</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>匈牙利</t>
+          <t>根西岛</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>743</v>
+        <v>229</v>
       </c>
       <c r="E3" t="n">
-        <v>895</v>
+        <v>239</v>
       </c>
       <c r="F3" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4932,25 +4961,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>立陶宛</t>
+          <t>爱尔兰</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>立陶宛</t>
+          <t>爱尔兰</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>896</v>
+        <v>6669</v>
       </c>
       <c r="E4" t="n">
-        <v>912</v>
+        <v>16671</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>9233</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5">
@@ -4961,25 +4990,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>俄罗斯</t>
+          <t>捷克</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>俄罗斯</t>
+          <t>捷克</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9357</v>
+        <v>4890</v>
       </c>
       <c r="E5" t="n">
-        <v>10131</v>
+        <v>7087</v>
       </c>
       <c r="F5" t="n">
-        <v>698</v>
+        <v>1989</v>
       </c>
       <c r="G5" t="n">
-        <v>76</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6">
@@ -4990,25 +5019,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>奥地利</t>
+          <t>乌克兰</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>奥地利</t>
+          <t>乌克兰</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10102</v>
+        <v>6479</v>
       </c>
       <c r="E6" t="n">
-        <v>12852</v>
+        <v>7170</v>
       </c>
       <c r="F6" t="n">
-        <v>2507</v>
+        <v>504</v>
       </c>
       <c r="G6" t="n">
-        <v>243</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
@@ -5019,25 +5048,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>瑞典</t>
+          <t>挪威</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>瑞典</t>
+          <t>挪威</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7715</v>
+        <v>7088</v>
       </c>
       <c r="E7" t="n">
-        <v>8419</v>
+        <v>7275</v>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>687</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8">
@@ -5048,25 +5077,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>卢森堡</t>
+          <t>白俄罗斯</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>卢森堡</t>
+          <t>白俄罗斯</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2747</v>
+        <v>6091</v>
       </c>
       <c r="E8" t="n">
-        <v>3034</v>
+        <v>6723</v>
       </c>
       <c r="F8" t="n">
-        <v>241</v>
+        <v>577</v>
       </c>
       <c r="G8" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -5077,25 +5106,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>塞尔维亚</t>
+          <t>保加利亚</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>塞尔维亚</t>
+          <t>保加利亚</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2600</v>
+        <v>879</v>
       </c>
       <c r="E9" t="n">
-        <v>2666</v>
+        <v>1081</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G9" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -5106,25 +5135,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>意大利</t>
+          <t>泽西岛</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>意大利</t>
+          <t>泽西岛</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>95727</v>
+        <v>236</v>
       </c>
       <c r="E10" t="n">
-        <v>139887</v>
+        <v>250</v>
       </c>
       <c r="F10" t="n">
-        <v>26491</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>17669</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -5135,25 +5164,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>北马其顿</t>
+          <t>塞尔维亚</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>北马其顿</t>
+          <t>塞尔维亚</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>552</v>
+        <v>6413</v>
       </c>
       <c r="E11" t="n">
-        <v>617</v>
+        <v>7718</v>
       </c>
       <c r="F11" t="n">
-        <v>35</v>
+        <v>1153</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
@@ -5164,25 +5193,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>法罗群岛</t>
+          <t>马耳他</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>法罗群岛</t>
+          <t>马耳他</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>184</v>
+        <v>396</v>
       </c>
       <c r="E12" t="n">
-        <v>184</v>
+        <v>443</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -5193,25 +5222,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>马耳他</t>
+          <t>斯洛伐克</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>马耳他</t>
+          <t>斯洛伐克</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>299</v>
+        <v>946</v>
       </c>
       <c r="E13" t="n">
-        <v>299</v>
+        <v>1244</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -5222,25 +5251,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>白俄罗斯</t>
+          <t>阿尔巴尼亚</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>白俄罗斯</t>
+          <t>阿尔巴尼亚</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>976</v>
+        <v>309</v>
       </c>
       <c r="E14" t="n">
-        <v>1066</v>
+        <v>663</v>
       </c>
       <c r="F14" t="n">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -5251,25 +5280,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>丹麦</t>
+          <t>波兰</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>丹麦</t>
+          <t>波兰</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4290</v>
+        <v>8230</v>
       </c>
       <c r="E15" t="n">
-        <v>5402</v>
+        <v>10169</v>
       </c>
       <c r="F15" t="n">
-        <v>894</v>
+        <v>1513</v>
       </c>
       <c r="G15" t="n">
-        <v>218</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16">
@@ -5280,25 +5309,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>挪威</t>
+          <t>拉脱维亚</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>挪威</t>
+          <t>拉脱维亚</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5912</v>
+        <v>679</v>
       </c>
       <c r="E16" t="n">
-        <v>6013</v>
+        <v>761</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G16" t="n">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -5309,25 +5338,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>英国</t>
+          <t>奥地利</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>英国</t>
+          <t>奥地利</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53501</v>
+        <v>3079</v>
       </c>
       <c r="E17" t="n">
-        <v>60733</v>
+        <v>14917</v>
       </c>
       <c r="F17" t="n">
-        <v>135</v>
+        <v>11328</v>
       </c>
       <c r="G17" t="n">
-        <v>7097</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18">
@@ -5338,25 +5367,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>安道尔</t>
+          <t>克罗地亚</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安道尔</t>
+          <t>克罗地亚</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>489</v>
+        <v>1033</v>
       </c>
       <c r="E18" t="n">
-        <v>564</v>
+        <v>1950</v>
       </c>
       <c r="F18" t="n">
-        <v>52</v>
+        <v>869</v>
       </c>
       <c r="G18" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -5367,25 +5396,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>希腊</t>
+          <t>匈牙利</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>希腊</t>
+          <t>匈牙利</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1782</v>
+        <v>1648</v>
       </c>
       <c r="E19" t="n">
-        <v>1884</v>
+        <v>2168</v>
       </c>
       <c r="F19" t="n">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="G19" t="n">
-        <v>83</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20">
@@ -5396,25 +5425,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>冰岛</t>
+          <t>瑞典</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>冰岛</t>
+          <t>瑞典</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1120</v>
+        <v>13689</v>
       </c>
       <c r="E20" t="n">
-        <v>1586</v>
+        <v>16147</v>
       </c>
       <c r="F20" t="n">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="21">
@@ -5425,25 +5454,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>斯洛文尼亚</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯洛文尼亚</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1051</v>
+        <v>57327</v>
       </c>
       <c r="E21" t="n">
-        <v>1091</v>
+        <v>62773</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4891</v>
       </c>
       <c r="G21" t="n">
-        <v>40</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22">
@@ -5454,25 +5483,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>保加利亚</t>
+          <t>比利时</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>保加利亚</t>
+          <t>比利时</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>567</v>
+        <v>26507</v>
       </c>
       <c r="E22" t="n">
-        <v>593</v>
+        <v>42797</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>9800</v>
       </c>
       <c r="G22" t="n">
-        <v>23</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="23">
@@ -5483,25 +5512,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>泽西岛</t>
+          <t>瑞士</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泽西岛</t>
+          <t>瑞士</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>167</v>
+        <v>6772</v>
       </c>
       <c r="E23" t="n">
-        <v>170</v>
+        <v>28197</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>19900</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="24">
@@ -5512,25 +5541,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>葡萄牙</t>
+          <t>西班牙</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>葡萄牙</t>
+          <t>西班牙</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12621</v>
+        <v>101617</v>
       </c>
       <c r="E24" t="n">
-        <v>13141</v>
+        <v>213024</v>
       </c>
       <c r="F24" t="n">
-        <v>140</v>
+        <v>89250</v>
       </c>
       <c r="G24" t="n">
-        <v>380</v>
+        <v>22157</v>
       </c>
     </row>
     <row r="25">
@@ -5541,25 +5570,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>根西岛</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>根西岛</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>162</v>
+        <v>39652</v>
       </c>
       <c r="E25" t="n">
-        <v>166</v>
+        <v>148046</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>103300</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="26">
@@ -5579,10 +5608,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E26" t="n">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -5599,25 +5628,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>圣马力诺</t>
+          <t>葡萄牙</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>圣马力诺</t>
+          <t>葡萄牙</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>243</v>
+        <v>20054</v>
       </c>
       <c r="E27" t="n">
-        <v>279</v>
+        <v>21982</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1143</v>
       </c>
       <c r="G27" t="n">
-        <v>34</v>
+        <v>785</v>
       </c>
     </row>
     <row r="28">
@@ -5628,25 +5657,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>爱尔兰</t>
+          <t>法国</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>爱尔兰</t>
+          <t>法国</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5839</v>
+        <v>57154</v>
       </c>
       <c r="E28" t="n">
-        <v>6074</v>
+        <v>119151</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>40657</v>
       </c>
       <c r="G28" t="n">
-        <v>235</v>
+        <v>21340</v>
       </c>
     </row>
     <row r="29">
@@ -5657,25 +5686,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>克罗地亚</t>
+          <t>罗马尼亚</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>克罗地亚</t>
+          <t>罗马尼亚</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1194</v>
+        <v>6796</v>
       </c>
       <c r="E29" t="n">
-        <v>1343</v>
+        <v>9710</v>
       </c>
       <c r="F29" t="n">
-        <v>130</v>
+        <v>2406</v>
       </c>
       <c r="G29" t="n">
-        <v>19</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30">
@@ -5686,25 +5715,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>乌克兰</t>
+          <t>爱沙尼亚</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>乌克兰</t>
+          <t>爱沙尼亚</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1581</v>
+        <v>1331</v>
       </c>
       <c r="E30" t="n">
-        <v>1668</v>
+        <v>1559</v>
       </c>
       <c r="F30" t="n">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="G30" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -5715,25 +5744,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>梵蒂冈</t>
+          <t>马恩岛</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>梵蒂冈</t>
+          <t>马恩岛</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>297</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -5744,25 +5773,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>捷克</t>
+          <t>北马其顿</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>捷克</t>
+          <t>北马其顿</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4889</v>
+        <v>931</v>
       </c>
       <c r="E32" t="n">
-        <v>5221</v>
+        <v>1259</v>
       </c>
       <c r="F32" t="n">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G32" t="n">
-        <v>99</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
@@ -5773,25 +5802,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>法国</t>
+          <t>英国</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>法国</t>
+          <t>英国</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>50466</v>
+        <v>115051</v>
       </c>
       <c r="E33" t="n">
-        <v>82048</v>
+        <v>133495</v>
       </c>
       <c r="F33" t="n">
-        <v>21254</v>
+        <v>344</v>
       </c>
       <c r="G33" t="n">
-        <v>10328</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="34">
@@ -5802,25 +5831,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>马恩岛</t>
+          <t>意大利</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>马恩岛</t>
+          <t>意大利</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>149</v>
+        <v>107699</v>
       </c>
       <c r="E34" t="n">
-        <v>150</v>
+        <v>187327</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>54543</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>25085</v>
       </c>
     </row>
     <row r="35">
@@ -5831,25 +5860,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>罗马尼亚</t>
+          <t>丹麦</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>罗马尼亚</t>
+          <t>丹麦</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4024</v>
+        <v>4780</v>
       </c>
       <c r="E35" t="n">
-        <v>4761</v>
+        <v>7912</v>
       </c>
       <c r="F35" t="n">
-        <v>528</v>
+        <v>2748</v>
       </c>
       <c r="G35" t="n">
-        <v>209</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36">
@@ -5860,25 +5889,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>爱沙尼亚</t>
+          <t>冰岛</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>爱沙尼亚</t>
+          <t>冰岛</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1089</v>
+        <v>313</v>
       </c>
       <c r="E36" t="n">
-        <v>1185</v>
+        <v>1785</v>
       </c>
       <c r="F36" t="n">
-        <v>72</v>
+        <v>1462</v>
       </c>
       <c r="G36" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -5889,25 +5918,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>拉脱维亚</t>
+          <t>斯洛文尼亚</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>拉脱维亚</t>
+          <t>斯洛文尼亚</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>575</v>
+        <v>1077</v>
       </c>
       <c r="E37" t="n">
-        <v>577</v>
+        <v>1353</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
@@ -5918,25 +5947,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>波兰</t>
+          <t>安道尔</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>波兰</t>
+          <t>安道尔</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4824</v>
+        <v>377</v>
       </c>
       <c r="E38" t="n">
-        <v>5205</v>
+        <v>723</v>
       </c>
       <c r="F38" t="n">
-        <v>222</v>
+        <v>309</v>
       </c>
       <c r="G38" t="n">
-        <v>159</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
@@ -5947,25 +5976,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>希腊</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>希腊</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>56169</v>
+        <v>2261</v>
       </c>
       <c r="E39" t="n">
-        <v>108202</v>
+        <v>2401</v>
       </c>
       <c r="F39" t="n">
-        <v>49926</v>
+        <v>19</v>
       </c>
       <c r="G39" t="n">
-        <v>2107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -5976,25 +6005,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>阿尔巴尼亚</t>
+          <t>芬兰</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>阿尔巴尼亚</t>
+          <t>芬兰</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>247</v>
+        <v>3970</v>
       </c>
       <c r="E40" t="n">
-        <v>400</v>
+        <v>4129</v>
       </c>
       <c r="F40" t="n">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>22</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41">
@@ -6005,25 +6034,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>荷兰</t>
+          <t>波黑</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>荷兰</t>
+          <t>波黑</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15347</v>
+        <v>836</v>
       </c>
       <c r="E41" t="n">
-        <v>20549</v>
+        <v>1350</v>
       </c>
       <c r="F41" t="n">
-        <v>2954</v>
+        <v>460</v>
       </c>
       <c r="G41" t="n">
-        <v>2248</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42">
@@ -6034,25 +6063,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>摩尔多瓦</t>
+          <t>黑山</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>摩尔多瓦</t>
+          <t>黑山</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1122</v>
+        <v>194</v>
       </c>
       <c r="E42" t="n">
-        <v>1174</v>
+        <v>315</v>
       </c>
       <c r="F42" t="n">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="G42" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -6063,25 +6092,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>芬兰</t>
+          <t>立陶宛</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>芬兰</t>
+          <t>立陶宛</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2437</v>
+        <v>975</v>
       </c>
       <c r="E43" t="n">
-        <v>2487</v>
+        <v>1370</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="G43" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
@@ -6092,25 +6121,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>瑞士</t>
+          <t>卢森堡</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>瑞士</t>
+          <t>卢森堡</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>12585</v>
+        <v>3333</v>
       </c>
       <c r="E44" t="n">
-        <v>23280</v>
+        <v>3654</v>
       </c>
       <c r="F44" t="n">
-        <v>9800</v>
+        <v>241</v>
       </c>
       <c r="G44" t="n">
-        <v>895</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
@@ -6121,25 +6150,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>斯洛伐克</t>
+          <t>法罗群岛</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯洛伐克</t>
+          <t>法罗群岛</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>667</v>
+        <v>185</v>
       </c>
       <c r="E45" t="n">
-        <v>682</v>
+        <v>185</v>
       </c>
       <c r="F45" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6150,25 +6179,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>摩纳哥</t>
+          <t>摩尔多瓦</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>摩纳哥</t>
+          <t>摩尔多瓦</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>77</v>
+        <v>2063</v>
       </c>
       <c r="E46" t="n">
-        <v>81</v>
+        <v>2641</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>505</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
@@ -6179,25 +6208,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>比利时</t>
+          <t>荷兰</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>比利时</t>
+          <t>荷兰</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>18291</v>
+        <v>30497</v>
       </c>
       <c r="E47" t="n">
-        <v>23403</v>
+        <v>34842</v>
       </c>
       <c r="F47" t="n">
-        <v>2872</v>
+        <v>291</v>
       </c>
       <c r="G47" t="n">
-        <v>2240</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="48">
@@ -6208,25 +6237,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>波黑</t>
+          <t>梵蒂冈</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>波黑</t>
+          <t>梵蒂冈</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>691</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>804</v>
+        <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -6237,25 +6266,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>黑山</t>
+          <t>列支敦士登</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>黑山</t>
+          <t>列支敦士登</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="E49" t="n">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -6266,25 +6295,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>列支敦士登</t>
+          <t>摩纳哥</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>列支敦士登</t>
+          <t>摩纳哥</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E50" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -6467,22 +6496,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>科特迪瓦</t>
+          <t>马拉维</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>科特迪瓦</t>
+          <t>马拉维</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>333</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>384</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -6496,25 +6525,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>马约特</t>
+          <t>科特迪瓦</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>马约特</t>
+          <t>科特迪瓦</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>182</v>
+        <v>618</v>
       </c>
       <c r="E3" t="n">
-        <v>184</v>
+        <v>952</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -6525,25 +6554,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>刚果（金）</t>
+          <t>马里</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>刚果（金）</t>
+          <t>马里</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E4" t="n">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -6554,22 +6583,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>佛得角</t>
+          <t>利比亚</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>佛得角</t>
+          <t>利比亚</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -6583,25 +6612,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>马里</t>
+          <t>塞内加尔</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>马里</t>
+          <t>塞内加尔</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="E6" t="n">
-        <v>59</v>
+        <v>479</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -6612,25 +6641,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>毛里求斯</t>
+          <t>突尼斯</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>毛里求斯</t>
+          <t>突尼斯</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>247</v>
+        <v>681</v>
       </c>
       <c r="E7" t="n">
-        <v>273</v>
+        <v>909</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -6641,25 +6670,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>刚果（布）</t>
+          <t>索马里</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>刚果（布）</t>
+          <t>索马里</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -6670,25 +6699,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>阿尔及利亚</t>
+          <t>尼日尔</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>阿尔及利亚</t>
+          <t>尼日尔</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1130</v>
+        <v>447</v>
       </c>
       <c r="E9" t="n">
-        <v>1572</v>
+        <v>662</v>
       </c>
       <c r="F9" t="n">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="G9" t="n">
-        <v>205</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -6699,25 +6728,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>利比亚</t>
+          <t>苏丹</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>利比亚</t>
+          <t>苏丹</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -6728,25 +6757,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>留尼旺</t>
+          <t>肯尼亚</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>留尼旺</t>
+          <t>肯尼亚</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>358</v>
+        <v>206</v>
       </c>
       <c r="E11" t="n">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -6757,25 +6786,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>利比里亚</t>
+          <t>卢旺达</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>利比里亚</t>
+          <t>卢旺达</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6786,25 +6815,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>多哥</t>
+          <t>刚果（金）</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>多哥</t>
+          <t>刚果（金）</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>377</v>
       </c>
       <c r="F13" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -6815,25 +6844,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>斯威士兰</t>
+          <t>毛里求斯</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯威士兰</t>
+          <t>毛里求斯</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -6844,25 +6873,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南苏丹</t>
+          <t>南非</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南苏丹</t>
+          <t>南非</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>2515</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3635</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -6873,25 +6902,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>摩洛哥</t>
+          <t>几内亚比绍</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>摩洛哥</t>
+          <t>几内亚比绍</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1085</v>
+        <v>49</v>
       </c>
       <c r="E16" t="n">
-        <v>1275</v>
+        <v>52</v>
       </c>
       <c r="F16" t="n">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -6902,25 +6931,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>加蓬</t>
+          <t>坦桑尼亚</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>加蓬</t>
+          <t>坦桑尼亚</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -6931,25 +6960,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>圣多美和普林西比</t>
+          <t>利比里亚</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>圣多美和普林西比</t>
+          <t>利比里亚</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -6960,25 +6989,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>埃塞俄比亚</t>
+          <t>多哥</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>埃塞俄比亚</t>
+          <t>多哥</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -6989,25 +7018,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>毛里塔尼亚</t>
+          <t>刚果（布）</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>毛里塔尼亚</t>
+          <t>刚果（布）</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="E20" t="n">
+        <v>186</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16</v>
+      </c>
+      <c r="G20" t="n">
         <v>6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7018,22 +7047,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>马拉维</t>
+          <t>佛得角</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>马拉维</t>
+          <t>佛得角</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -7047,19 +7076,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>几内亚比绍</t>
+          <t>留尼旺</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>几内亚比绍</t>
+          <t>留尼旺</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>33</v>
+        <v>410</v>
       </c>
       <c r="E22" t="n">
-        <v>33</v>
+        <v>410</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -7076,25 +7105,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>坦桑尼亚</t>
+          <t>阿尔及利亚</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>坦桑尼亚</t>
+          <t>阿尔及利亚</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>1409</v>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>2910</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>1099</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24">
@@ -7105,25 +7134,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>南非</t>
+          <t>埃塞俄比亚</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>南非</t>
+          <t>埃塞俄比亚</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1782</v>
+        <v>92</v>
       </c>
       <c r="E24" t="n">
-        <v>1845</v>
+        <v>116</v>
       </c>
       <c r="F24" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -7134,25 +7163,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>布隆迪共和国</t>
+          <t>加蓬</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>布隆迪共和国</t>
+          <t>加蓬</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -7163,25 +7192,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>卢旺达</t>
+          <t>摩洛哥</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>卢旺达</t>
+          <t>摩洛哥</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>103</v>
+        <v>2880</v>
       </c>
       <c r="E26" t="n">
-        <v>110</v>
+        <v>3446</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>417</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
@@ -7192,25 +7221,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>塞拉利昂</t>
+          <t>津巴布韦</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>塞拉利昂</t>
+          <t>津巴布韦</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -7221,25 +7250,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>苏丹</t>
+          <t>莫桑比克</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>苏丹</t>
+          <t>莫桑比克</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E28" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7250,25 +7279,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>肯尼亚</t>
+          <t>布基纳法索</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>肯尼亚</t>
+          <t>布基纳法索</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E29" t="n">
-        <v>179</v>
+        <v>609</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>389</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
@@ -7279,25 +7308,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>赞比亚共和国</t>
+          <t>马约特</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赞比亚共和国</t>
+          <t>马约特</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="E30" t="n">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -7308,25 +7337,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>几内亚</t>
+          <t>埃及</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>几内亚</t>
+          <t>埃及</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>159</v>
+        <v>2448</v>
       </c>
       <c r="E31" t="n">
-        <v>164</v>
+        <v>3659</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>935</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
@@ -7337,25 +7366,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>赤道几内亚</t>
+          <t>加纳</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赤道几内亚</t>
+          <t>加纳</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>1025</v>
       </c>
       <c r="E32" t="n">
-        <v>18</v>
+        <v>1154</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -7366,25 +7395,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>尼日尔</t>
+          <t>马达加斯加</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>尼日尔</t>
+          <t>马达加斯加</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>303</v>
+        <v>86</v>
       </c>
       <c r="E33" t="n">
-        <v>342</v>
+        <v>121</v>
       </c>
       <c r="F33" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G33" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7395,25 +7424,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>索马里</t>
+          <t>几内亚</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>索马里</t>
+          <t>几内亚</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>591</v>
       </c>
       <c r="E34" t="n">
-        <v>12</v>
+        <v>761</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -7424,25 +7453,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>喀麦隆</t>
+          <t>赤道几内亚</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>喀麦隆</t>
+          <t>赤道几内亚</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>658</v>
+        <v>76</v>
       </c>
       <c r="E35" t="n">
-        <v>730</v>
+        <v>84</v>
       </c>
       <c r="F35" t="n">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="G35" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -7453,25 +7482,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>乌干达</t>
+          <t>赞比亚共和国</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>乌干达</t>
+          <t>赞比亚共和国</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E36" t="n">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -7482,25 +7511,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>贝宁</t>
+          <t>塞拉利昂</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>贝宁</t>
+          <t>塞拉利昂</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E37" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7511,19 +7540,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>中非共和国</t>
+          <t>乍得</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中非共和国</t>
+          <t>乍得</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E38" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -7540,25 +7569,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>厄立特里亚</t>
+          <t>尼日利亚</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>厄立特里亚</t>
+          <t>尼日利亚</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>33</v>
+        <v>648</v>
       </c>
       <c r="E39" t="n">
-        <v>33</v>
+        <v>873</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
@@ -7569,25 +7598,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>纳米比亚</t>
+          <t>吉布提</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>纳米比亚</t>
+          <t>吉布提</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>13</v>
+        <v>789</v>
       </c>
       <c r="E40" t="n">
-        <v>16</v>
+        <v>974</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -7598,22 +7627,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>塞舌尔</t>
+          <t>中非共和国</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>塞舌尔</t>
+          <t>中非共和国</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -7627,25 +7656,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>乍得</t>
+          <t>喀麦隆</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>乍得</t>
+          <t>喀麦隆</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>815</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>1163</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
@@ -7656,22 +7685,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>吉布提</t>
+          <t>乌干达</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>吉布提</t>
+          <t>乌干达</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="E43" t="n">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="F43" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -7685,25 +7714,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>尼日利亚</t>
+          <t>布隆迪共和国</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>尼日利亚</t>
+          <t>布隆迪共和国</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="F44" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -7714,25 +7743,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>布基纳法索</t>
+          <t>斯威士兰</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>布基纳法索</t>
+          <t>斯威士兰</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="E45" t="n">
-        <v>414</v>
+        <v>31</v>
       </c>
       <c r="F45" t="n">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -7743,25 +7772,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>埃及</t>
+          <t>博茨瓦纳</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>埃及</t>
+          <t>博茨瓦纳</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1152</v>
+        <v>19</v>
       </c>
       <c r="E46" t="n">
-        <v>1560</v>
+        <v>20</v>
       </c>
       <c r="F46" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -7772,25 +7801,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>塞内加尔</t>
+          <t>冈比亚</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>塞内加尔</t>
+          <t>冈比亚</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -7801,25 +7830,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>安哥拉</t>
+          <t>贝宁</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>安哥拉</t>
+          <t>贝宁</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E48" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -7830,25 +7859,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>博茨瓦纳</t>
+          <t>厄立特里亚</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>博茨瓦纳</t>
+          <t>厄立特里亚</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E49" t="n">
+        <v>39</v>
+      </c>
+      <c r="F49" t="n">
         <v>6</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -7859,25 +7888,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>莫桑比克</t>
+          <t>安哥拉</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>莫桑比克</t>
+          <t>安哥拉</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -7888,25 +7917,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>津巴布韦</t>
+          <t>毛里塔尼亚</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>津巴布韦</t>
+          <t>毛里塔尼亚</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -7917,25 +7946,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>突尼斯</t>
+          <t>圣多美和普林西比</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>突尼斯</t>
+          <t>圣多美和普林西比</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>604</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>628</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -7946,25 +7975,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>加纳</t>
+          <t>南苏丹</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>加纳</t>
+          <t>南苏丹</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>313</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -7975,22 +8004,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>马达加斯加</t>
+          <t>纳米比亚</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>马达加斯加</t>
+          <t>纳米比亚</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E54" t="n">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -8004,25 +8033,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>冈比亚</t>
+          <t>塞舌尔</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>冈比亚</t>
+          <t>塞舌尔</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -8102,16 +8131,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>340344</v>
+        <v>510428</v>
       </c>
       <c r="C2" t="n">
-        <v>204991</v>
+        <v>278296</v>
       </c>
       <c r="D2" t="n">
-        <v>122294</v>
+        <v>211515</v>
       </c>
       <c r="E2" t="n">
-        <v>13059</v>
+        <v>20617</v>
       </c>
     </row>
     <row r="3">
@@ -8127,10 +8156,10 @@
         <v>574</v>
       </c>
       <c r="D3" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -8140,16 +8169,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461864</v>
+        <v>908610</v>
       </c>
       <c r="C4" t="n">
-        <v>26900</v>
+        <v>90605</v>
       </c>
       <c r="D4" t="n">
-        <v>419280</v>
+        <v>767634</v>
       </c>
       <c r="E4" t="n">
-        <v>15684</v>
+        <v>50371</v>
       </c>
     </row>
     <row r="5">
@@ -8159,16 +8188,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35153</v>
+        <v>96175</v>
       </c>
       <c r="C5" t="n">
-        <v>3260</v>
+        <v>39436</v>
       </c>
       <c r="D5" t="n">
-        <v>30524</v>
+        <v>52185</v>
       </c>
       <c r="E5" t="n">
-        <v>1369</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="6">
@@ -8178,16 +8207,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7254</v>
+        <v>8009</v>
       </c>
       <c r="C6" t="n">
-        <v>436</v>
+        <v>5356</v>
       </c>
       <c r="D6" t="n">
-        <v>6761</v>
+        <v>2556</v>
       </c>
       <c r="E6" t="n">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -8197,16 +8226,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714843</v>
+        <v>1135833</v>
       </c>
       <c r="C7" t="n">
-        <v>168195</v>
+        <v>362282</v>
       </c>
       <c r="D7" t="n">
-        <v>485751</v>
+        <v>661835</v>
       </c>
       <c r="E7" t="n">
-        <v>60897</v>
+        <v>111716</v>
       </c>
     </row>
     <row r="8">
@@ -8216,16 +8245,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12027</v>
+        <v>26693</v>
       </c>
       <c r="C8" t="n">
-        <v>1345</v>
+        <v>6721</v>
       </c>
       <c r="D8" t="n">
-        <v>10104</v>
+        <v>18725</v>
       </c>
       <c r="E8" t="n">
-        <v>578</v>
+        <v>1247</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/report.xlsx
+++ b/excel_files/report.xlsx
@@ -7,13 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Africa" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NA" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Asia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AU" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EUR" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NA" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="other" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SA" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SA" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="other" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Africa" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AU" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EUR" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SUM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
@@ -57,7 +57,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -73,6 +72,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -365,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,56 +480,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>马拉维</t>
+          <t>哥斯达黎加</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>马拉维</t>
+          <t>哥斯达黎加</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>656</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>662</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>科特迪瓦</t>
+          <t>马提尼克</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>科特迪瓦</t>
+          <t>马提尼克</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>618</v>
+        <v>149</v>
       </c>
       <c r="E3" t="n">
-        <v>952</v>
+        <v>163</v>
       </c>
       <c r="F3" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>14</v>
@@ -471,317 +538,317 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>马里</t>
+          <t>墨西哥</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>马里</t>
+          <t>墨西哥</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>187</v>
+        <v>9573</v>
       </c>
       <c r="E4" t="n">
-        <v>258</v>
+        <v>10544</v>
       </c>
       <c r="F4" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>利比亚</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>利比亚</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>44</v>
+        <v>719225</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>842624</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>76614</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>46785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>塞内加尔</t>
+          <t>古巴</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>塞内加尔</t>
+          <t>古巴</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>216</v>
+        <v>1099</v>
       </c>
       <c r="E6" t="n">
-        <v>479</v>
+        <v>1137</v>
       </c>
       <c r="F6" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>突尼斯</t>
+          <t>加拿大</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>突尼斯</t>
+          <t>加拿大</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>681</v>
+        <v>24231</v>
       </c>
       <c r="E7" t="n">
-        <v>909</v>
+        <v>40191</v>
       </c>
       <c r="F7" t="n">
-        <v>190</v>
+        <v>13986</v>
       </c>
       <c r="G7" t="n">
-        <v>38</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>索马里</t>
+          <t>荷属圣马丁</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>索马里</t>
+          <t>荷属圣马丁</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>269</v>
+        <v>58</v>
       </c>
       <c r="E8" t="n">
-        <v>286</v>
+        <v>68</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>尼日尔</t>
+          <t>牙买加</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>尼日尔</t>
+          <t>牙买加</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>447</v>
+        <v>217</v>
       </c>
       <c r="E9" t="n">
-        <v>662</v>
+        <v>223</v>
       </c>
       <c r="F9" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>苏丹</t>
+          <t>巴拿马</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>苏丹</t>
+          <t>巴拿马</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>135</v>
+        <v>4518</v>
       </c>
       <c r="E10" t="n">
-        <v>162</v>
+        <v>4658</v>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>肯尼亚</t>
+          <t>美属维尔京群岛</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>肯尼亚</t>
+          <t>美属维尔京群岛</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
-        <v>303</v>
+        <v>54</v>
       </c>
       <c r="F11" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>卢旺达</t>
+          <t>特立尼达和多巴哥</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>卢旺达</t>
+          <t>特立尼达和多巴哥</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="E12" t="n">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="F12" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>刚果（金）</t>
+          <t>危地马拉</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>刚果（金）</t>
+          <t>危地马拉</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E13" t="n">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="F13" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>毛里求斯</t>
+          <t>巴哈马</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>毛里求斯</t>
+          <t>巴哈马</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E14" t="n">
-        <v>329</v>
+        <v>64</v>
       </c>
       <c r="F14" t="n">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>9</v>
@@ -790,404 +857,404 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南非</t>
+          <t>海地</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南非</t>
+          <t>海地</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2515</v>
+        <v>54</v>
       </c>
       <c r="E15" t="n">
-        <v>3635</v>
+        <v>57</v>
       </c>
       <c r="F15" t="n">
-        <v>1055</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>几内亚比绍</t>
+          <t>波多黎各</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>几内亚比绍</t>
+          <t>波多黎各</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>49</v>
+        <v>1234</v>
       </c>
       <c r="E16" t="n">
-        <v>52</v>
+        <v>1298</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>坦桑尼亚</t>
+          <t>尼加拉瓜</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>坦桑尼亚</t>
+          <t>尼加拉瓜</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>263</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>利比里亚</t>
+          <t>多米尼加</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>利比里亚</t>
+          <t>多米尼加</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>86</v>
+        <v>4799</v>
       </c>
       <c r="E18" t="n">
-        <v>101</v>
+        <v>5044</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>多哥</t>
+          <t>洪都拉斯</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>多哥</t>
+          <t>洪都拉斯</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>448</v>
       </c>
       <c r="E19" t="n">
-        <v>88</v>
+        <v>494</v>
       </c>
       <c r="F19" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>刚果（布）</t>
+          <t>萨尔瓦多</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>刚果（布）</t>
+          <t>萨尔瓦多</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="E20" t="n">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>佛得角</t>
+          <t>开曼群岛</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>佛得角</t>
+          <t>开曼群岛</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E21" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>留尼旺</t>
+          <t>瓜德罗普岛</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>留尼旺</t>
+          <t>瓜德罗普岛</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>410</v>
+        <v>136</v>
       </c>
       <c r="E22" t="n">
-        <v>410</v>
+        <v>148</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>阿尔及利亚</t>
+          <t>阿鲁巴</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>阿尔及利亚</t>
+          <t>阿鲁巴</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1409</v>
+        <v>95</v>
       </c>
       <c r="E23" t="n">
-        <v>2910</v>
+        <v>97</v>
       </c>
       <c r="F23" t="n">
-        <v>1099</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>埃塞俄比亚</t>
+          <t>英属维尔京群岛</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>埃塞俄比亚</t>
+          <t>英属维尔京群岛</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>加蓬</t>
+          <t>百慕大</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>加蓬</t>
+          <t>百慕大</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="E25" t="n">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>摩洛哥</t>
+          <t>圣马丁岛</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>摩洛哥</t>
+          <t>圣马丁岛</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2880</v>
+        <v>35</v>
       </c>
       <c r="E26" t="n">
-        <v>3446</v>
+        <v>37</v>
       </c>
       <c r="F26" t="n">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>149</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>津巴布韦</t>
+          <t>安提瓜和巴布达</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>津巴布韦</t>
+          <t>安提瓜和巴布达</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>莫桑比克</t>
+          <t>圣其茨和尼维斯</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>莫桑比克</t>
+          <t>圣其茨和尼维斯</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1196,143 +1263,143 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>布基纳法索</t>
+          <t>特克斯和凯科斯群岛</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>布基纳法索</t>
+          <t>特克斯和凯科斯群岛</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>609</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>马约特</t>
+          <t>巴巴多斯</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>马约特</t>
+          <t>巴巴多斯</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>307</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>埃及</t>
+          <t>格林那达</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>埃及</t>
+          <t>格林那达</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2448</v>
+        <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>3659</v>
+        <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>935</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>加纳</t>
+          <t>圣巴泰勒米岛</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>加纳</t>
+          <t>圣巴泰勒米岛</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1025</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>1154</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>马达加斯加</t>
+          <t>安圭拉</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>马达加斯加</t>
+          <t>安圭拉</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1341,56 +1408,56 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>几内亚</t>
+          <t>多米尼克</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>几内亚</t>
+          <t>多米尼克</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>591</v>
+        <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>761</v>
+        <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>赤道几内亚</t>
+          <t>库拉索岛</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赤道几内亚</t>
+          <t>库拉索岛</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E35" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1399,82 +1466,82 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>赞比亚共和国</t>
+          <t>蒙特塞拉特</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赞比亚共和国</t>
+          <t>蒙特塞拉特</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E36" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>塞拉利昂</t>
+          <t>伯利兹</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>塞拉利昂</t>
+          <t>伯利兹</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E37" t="n">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>乍得</t>
+          <t>圣文森特和格林纳丁斯</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>乍得</t>
+          <t>圣文森特和格林纳丁斯</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1486,85 +1553,85 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>尼日利亚</t>
+          <t>圣皮埃尔和密克隆群岛</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>尼日利亚</t>
+          <t>圣皮埃尔和密克隆群岛</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>648</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>873</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>吉布提</t>
+          <t>格陵兰</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>吉布提</t>
+          <t>格陵兰</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>789</v>
+        <v>11</v>
       </c>
       <c r="E40" t="n">
-        <v>974</v>
+        <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>中非共和国</t>
+          <t>圣卢西亚</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中非共和国</t>
+          <t>圣卢西亚</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1573,435 +1640,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>喀麦隆</t>
+          <t>圣巴泰勒米</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>喀麦隆</t>
+          <t>圣巴泰勒米</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>815</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>1163</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>乌干达</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>乌干达</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>35</v>
-      </c>
-      <c r="E43" t="n">
-        <v>63</v>
-      </c>
-      <c r="F43" t="n">
-        <v>28</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>布隆迪共和国</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>布隆迪共和国</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>6</v>
-      </c>
-      <c r="E44" t="n">
-        <v>11</v>
-      </c>
-      <c r="F44" t="n">
-        <v>4</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>斯威士兰</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>斯威士兰</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>20</v>
-      </c>
-      <c r="E45" t="n">
-        <v>31</v>
-      </c>
-      <c r="F45" t="n">
-        <v>10</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>博茨瓦纳</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>博茨瓦纳</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>19</v>
-      </c>
-      <c r="E46" t="n">
-        <v>20</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>冈比亚</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>冈比亚</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>7</v>
-      </c>
-      <c r="E47" t="n">
-        <v>10</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>贝宁</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>贝宁</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>26</v>
-      </c>
-      <c r="E48" t="n">
-        <v>54</v>
-      </c>
-      <c r="F48" t="n">
-        <v>27</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>厄立特里亚</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>厄立特里亚</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>33</v>
-      </c>
-      <c r="E49" t="n">
-        <v>39</v>
-      </c>
-      <c r="F49" t="n">
-        <v>6</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>安哥拉</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>安哥拉</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>16</v>
-      </c>
-      <c r="E50" t="n">
-        <v>24</v>
-      </c>
-      <c r="F50" t="n">
-        <v>6</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>毛里塔尼亚</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>毛里塔尼亚</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E51" t="n">
-        <v>7</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>圣多美和普林西比</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>圣多美和普林西比</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>4</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>南苏丹</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>南苏丹</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>4</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>纳米比亚</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>纳米比亚</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>13</v>
-      </c>
-      <c r="E54" t="n">
-        <v>16</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>塞舌尔</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>塞舌尔</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>11</v>
-      </c>
-      <c r="E55" t="n">
-        <v>11</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>留尼汪</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>留尼汪</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>6</v>
-      </c>
-      <c r="E56" t="n">
-        <v>6</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4363,6 +4024,2262 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>continentName</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>countryName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>provinceName</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>currentConfirmedCount</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>confirmedCount</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>curedCount</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>deadCount</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>智利</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>智利</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5750</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11296</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5386</v>
+      </c>
+      <c r="G2" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>哥伦比亚</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>哥伦比亚</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4065</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4356</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85</v>
+      </c>
+      <c r="G3" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>厄瓜多尔</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>厄瓜多尔</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>9377</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10398</v>
+      </c>
+      <c r="F4" t="n">
+        <v>501</v>
+      </c>
+      <c r="G4" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>秘鲁</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>秘鲁</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>11693</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19250</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7027</v>
+      </c>
+      <c r="G5" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>委内瑞拉</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>委内瑞拉</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>275</v>
+      </c>
+      <c r="E6" t="n">
+        <v>285</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>苏里南</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>苏里南</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>巴拉圭</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>巴拉圭</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>170</v>
+      </c>
+      <c r="E8" t="n">
+        <v>208</v>
+      </c>
+      <c r="F8" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>玻利维亚</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>玻利维亚</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>564</v>
+      </c>
+      <c r="E9" t="n">
+        <v>598</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>巴西</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>巴西</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>17533</v>
+      </c>
+      <c r="E10" t="n">
+        <v>45757</v>
+      </c>
+      <c r="F10" t="n">
+        <v>25318</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>阿根廷</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>阿根廷</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2392</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3288</v>
+      </c>
+      <c r="F11" t="n">
+        <v>737</v>
+      </c>
+      <c r="G11" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>乌拉圭</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>乌拉圭</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>549</v>
+      </c>
+      <c r="F12" t="n">
+        <v>337</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>法属圭亚那</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>法属圭亚那</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>96</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>圭亚那</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圭亚那</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>51</v>
+      </c>
+      <c r="E14" t="n">
+        <v>67</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>荷兰加勒比地区</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>荷兰加勒比地区</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>福克兰群岛</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>福克兰群岛</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>continentName</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>countryName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>provinceName</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>currentConfirmedCount</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>confirmedCount</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>curedCount</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>deadCount</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>钻石公主号邮轮</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>钻石公主号邮轮</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>125</v>
+      </c>
+      <c r="E2" t="n">
+        <v>712</v>
+      </c>
+      <c r="F2" t="n">
+        <v>574</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>至尊公主邮轮</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>至尊公主邮轮</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>continentName</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>countryName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>provinceName</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>currentConfirmedCount</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>confirmedCount</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>curedCount</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>deadCount</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>马拉维</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>马拉维</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>科特迪瓦</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>科特迪瓦</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>618</v>
+      </c>
+      <c r="E3" t="n">
+        <v>952</v>
+      </c>
+      <c r="F3" t="n">
+        <v>320</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>马里</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>马里</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>187</v>
+      </c>
+      <c r="E4" t="n">
+        <v>258</v>
+      </c>
+      <c r="F4" t="n">
+        <v>57</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>利比亚</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>利比亚</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>塞内加尔</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>塞内加尔</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>216</v>
+      </c>
+      <c r="E6" t="n">
+        <v>479</v>
+      </c>
+      <c r="F6" t="n">
+        <v>257</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>突尼斯</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>突尼斯</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>681</v>
+      </c>
+      <c r="E7" t="n">
+        <v>909</v>
+      </c>
+      <c r="F7" t="n">
+        <v>190</v>
+      </c>
+      <c r="G7" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>索马里</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>索马里</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" t="n">
+        <v>286</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>尼日尔</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>尼日尔</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>447</v>
+      </c>
+      <c r="E9" t="n">
+        <v>662</v>
+      </c>
+      <c r="F9" t="n">
+        <v>193</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>苏丹</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>苏丹</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>135</v>
+      </c>
+      <c r="E10" t="n">
+        <v>162</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>肯尼亚</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>肯尼亚</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>206</v>
+      </c>
+      <c r="E11" t="n">
+        <v>303</v>
+      </c>
+      <c r="F11" t="n">
+        <v>83</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卢旺达</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>卢旺达</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>69</v>
+      </c>
+      <c r="E12" t="n">
+        <v>153</v>
+      </c>
+      <c r="F12" t="n">
+        <v>84</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>刚果（金）</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>刚果（金）</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>305</v>
+      </c>
+      <c r="E13" t="n">
+        <v>377</v>
+      </c>
+      <c r="F13" t="n">
+        <v>47</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>毛里求斯</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>毛里求斯</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>59</v>
+      </c>
+      <c r="E14" t="n">
+        <v>329</v>
+      </c>
+      <c r="F14" t="n">
+        <v>261</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>南非</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南非</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2515</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3635</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1055</v>
+      </c>
+      <c r="G15" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>几内亚比绍</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>几内亚比绍</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>49</v>
+      </c>
+      <c r="E16" t="n">
+        <v>52</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>坦桑尼亚</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>坦桑尼亚</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>263</v>
+      </c>
+      <c r="E17" t="n">
+        <v>284</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>利比里亚</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>利比里亚</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>86</v>
+      </c>
+      <c r="E18" t="n">
+        <v>101</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>多哥</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>多哥</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>26</v>
+      </c>
+      <c r="E19" t="n">
+        <v>88</v>
+      </c>
+      <c r="F19" t="n">
+        <v>56</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>刚果（布）</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>刚果（布）</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>164</v>
+      </c>
+      <c r="E20" t="n">
+        <v>186</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>佛得角</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>佛得角</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>71</v>
+      </c>
+      <c r="E21" t="n">
+        <v>73</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>留尼旺</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>留尼旺</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>410</v>
+      </c>
+      <c r="E22" t="n">
+        <v>410</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>阿尔及利亚</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>阿尔及利亚</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1409</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2910</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1099</v>
+      </c>
+      <c r="G23" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>埃塞俄比亚</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>埃塞俄比亚</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>92</v>
+      </c>
+      <c r="E24" t="n">
+        <v>116</v>
+      </c>
+      <c r="F24" t="n">
+        <v>21</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>加蓬</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>加蓬</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>141</v>
+      </c>
+      <c r="E25" t="n">
+        <v>166</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>摩洛哥</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>摩洛哥</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2880</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F26" t="n">
+        <v>417</v>
+      </c>
+      <c r="G26" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>津巴布韦</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>津巴布韦</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>22</v>
+      </c>
+      <c r="E27" t="n">
+        <v>28</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>莫桑比克</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>莫桑比克</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>33</v>
+      </c>
+      <c r="E28" t="n">
+        <v>41</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>布基纳法索</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>布基纳法索</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>181</v>
+      </c>
+      <c r="E29" t="n">
+        <v>609</v>
+      </c>
+      <c r="F29" t="n">
+        <v>389</v>
+      </c>
+      <c r="G29" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>马约特</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>马约特</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>307</v>
+      </c>
+      <c r="E30" t="n">
+        <v>311</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>埃及</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>埃及</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2448</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3659</v>
+      </c>
+      <c r="F31" t="n">
+        <v>935</v>
+      </c>
+      <c r="G31" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>加纳</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>加纳</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1154</v>
+      </c>
+      <c r="F32" t="n">
+        <v>120</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>马达加斯加</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>马达加斯加</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>86</v>
+      </c>
+      <c r="E33" t="n">
+        <v>121</v>
+      </c>
+      <c r="F33" t="n">
+        <v>35</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>几内亚</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>几内亚</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>591</v>
+      </c>
+      <c r="E34" t="n">
+        <v>761</v>
+      </c>
+      <c r="F34" t="n">
+        <v>164</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>赤道几内亚</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>赤道几内亚</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>76</v>
+      </c>
+      <c r="E35" t="n">
+        <v>84</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>赞比亚共和国</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>赞比亚共和国</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>36</v>
+      </c>
+      <c r="E36" t="n">
+        <v>74</v>
+      </c>
+      <c r="F36" t="n">
+        <v>35</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>塞拉利昂</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>塞拉利昂</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>55</v>
+      </c>
+      <c r="E37" t="n">
+        <v>61</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>乍得</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>乍得</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>34</v>
+      </c>
+      <c r="E38" t="n">
+        <v>34</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>尼日利亚</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>尼日利亚</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>648</v>
+      </c>
+      <c r="E39" t="n">
+        <v>873</v>
+      </c>
+      <c r="F39" t="n">
+        <v>197</v>
+      </c>
+      <c r="G39" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>吉布提</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>吉布提</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>789</v>
+      </c>
+      <c r="E40" t="n">
+        <v>974</v>
+      </c>
+      <c r="F40" t="n">
+        <v>183</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>中非共和国</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中非共和国</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>16</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>喀麦隆</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>喀麦隆</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>815</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1163</v>
+      </c>
+      <c r="F42" t="n">
+        <v>305</v>
+      </c>
+      <c r="G42" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>乌干达</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>乌干达</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>35</v>
+      </c>
+      <c r="E43" t="n">
+        <v>63</v>
+      </c>
+      <c r="F43" t="n">
+        <v>28</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>布隆迪共和国</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>布隆迪共和国</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" t="n">
+        <v>11</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>斯威士兰</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>斯威士兰</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20</v>
+      </c>
+      <c r="E45" t="n">
+        <v>31</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>博茨瓦纳</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博茨瓦纳</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>19</v>
+      </c>
+      <c r="E46" t="n">
+        <v>20</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>冈比亚</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>冈比亚</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>贝宁</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>贝宁</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>26</v>
+      </c>
+      <c r="E48" t="n">
+        <v>54</v>
+      </c>
+      <c r="F48" t="n">
+        <v>27</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>厄立特里亚</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>厄立特里亚</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>33</v>
+      </c>
+      <c r="E49" t="n">
+        <v>39</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>安哥拉</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安哥拉</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>16</v>
+      </c>
+      <c r="E50" t="n">
+        <v>24</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>毛里塔尼亚</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>毛里塔尼亚</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>圣多美和普林西比</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>圣多美和普林西比</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>南苏丹</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南苏丹</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>纳米比亚</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>纳米比亚</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>13</v>
+      </c>
+      <c r="E54" t="n">
+        <v>16</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>塞舌尔</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>塞舌尔</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>11</v>
+      </c>
+      <c r="E55" t="n">
+        <v>11</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>留尼汪</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>留尼汪</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4645,7 +6562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6230,1856 +8147,6 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>continentName</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>countryName</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>provinceName</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>currentConfirmedCount</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>confirmedCount</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>curedCount</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>deadCount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>哥斯达黎加</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>哥斯达黎加</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>656</v>
-      </c>
-      <c r="E2" t="n">
-        <v>662</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>马提尼克</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>马提尼克</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>149</v>
-      </c>
-      <c r="E3" t="n">
-        <v>163</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>墨西哥</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>墨西哥</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>9573</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10544</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>美国</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>美国</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>719225</v>
-      </c>
-      <c r="E5" t="n">
-        <v>842624</v>
-      </c>
-      <c r="F5" t="n">
-        <v>76614</v>
-      </c>
-      <c r="G5" t="n">
-        <v>46785</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>古巴</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>古巴</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1099</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1137</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>加拿大</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>加拿大</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>24231</v>
-      </c>
-      <c r="E7" t="n">
-        <v>40191</v>
-      </c>
-      <c r="F7" t="n">
-        <v>13986</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>荷属圣马丁</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>荷属圣马丁</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>58</v>
-      </c>
-      <c r="E8" t="n">
-        <v>68</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>牙买加</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>牙买加</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>217</v>
-      </c>
-      <c r="E9" t="n">
-        <v>223</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>巴拿马</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>巴拿马</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>4518</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4658</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>美属维尔京群岛</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>美属维尔京群岛</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>51</v>
-      </c>
-      <c r="E11" t="n">
-        <v>54</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>特立尼达和多巴哥</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>特立尼达和多巴哥</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>106</v>
-      </c>
-      <c r="E12" t="n">
-        <v>114</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>危地马拉</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>危地马拉</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>285</v>
-      </c>
-      <c r="E13" t="n">
-        <v>294</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>巴哈马</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>巴哈马</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>55</v>
-      </c>
-      <c r="E14" t="n">
-        <v>64</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>海地</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>海地</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>54</v>
-      </c>
-      <c r="E15" t="n">
-        <v>57</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>波多黎各</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>波多黎各</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1234</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1298</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>尼加拉瓜</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>尼加拉瓜</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>多米尼加</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>多米尼加</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>4799</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5044</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>洪都拉斯</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>洪都拉斯</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>448</v>
-      </c>
-      <c r="E19" t="n">
-        <v>494</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>萨尔瓦多</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>萨尔瓦多</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>218</v>
-      </c>
-      <c r="E20" t="n">
-        <v>225</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>开曼群岛</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>开曼群岛</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>64</v>
-      </c>
-      <c r="E21" t="n">
-        <v>66</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>瓜德罗普岛</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>瓜德罗普岛</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>136</v>
-      </c>
-      <c r="E22" t="n">
-        <v>148</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>阿鲁巴</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>阿鲁巴</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>95</v>
-      </c>
-      <c r="E23" t="n">
-        <v>97</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>英属维尔京群岛</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>英属维尔京群岛</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>百慕大</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>百慕大</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>81</v>
-      </c>
-      <c r="E25" t="n">
-        <v>86</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>圣马丁岛</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>圣马丁岛</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>35</v>
-      </c>
-      <c r="E26" t="n">
-        <v>37</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>安提瓜和巴布达</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>安提瓜和巴布达</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>20</v>
-      </c>
-      <c r="E27" t="n">
-        <v>23</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>圣其茨和尼维斯</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>圣其茨和尼维斯</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>15</v>
-      </c>
-      <c r="E28" t="n">
-        <v>15</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>特克斯和凯科斯群岛</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>特克斯和凯科斯群岛</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>10</v>
-      </c>
-      <c r="E29" t="n">
-        <v>11</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>巴巴多斯</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>巴巴多斯</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>70</v>
-      </c>
-      <c r="E30" t="n">
-        <v>75</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>格林那达</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>格林那达</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>14</v>
-      </c>
-      <c r="E31" t="n">
-        <v>14</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>圣巴泰勒米岛</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>圣巴泰勒米岛</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>6</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>安圭拉</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>安圭拉</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>多米尼克</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>多米尼克</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>16</v>
-      </c>
-      <c r="E34" t="n">
-        <v>16</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>库拉索岛</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>库拉索岛</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>13</v>
-      </c>
-      <c r="E35" t="n">
-        <v>14</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>蒙特塞拉特</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>蒙特塞拉特</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>11</v>
-      </c>
-      <c r="E36" t="n">
-        <v>11</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>伯利兹</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>伯利兹</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>16</v>
-      </c>
-      <c r="E37" t="n">
-        <v>18</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>圣文森特和格林纳丁斯</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>圣文森特和格林纳丁斯</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>12</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>圣皮埃尔和密克隆群岛</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>圣皮埃尔和密克隆群岛</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>格陵兰</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>格陵兰</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>11</v>
-      </c>
-      <c r="E40" t="n">
-        <v>11</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>圣卢西亚</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>圣卢西亚</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>15</v>
-      </c>
-      <c r="E41" t="n">
-        <v>15</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>圣巴泰勒米</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>圣巴泰勒米</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>continentName</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>countryName</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>provinceName</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>currentConfirmedCount</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>confirmedCount</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>curedCount</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>deadCount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>钻石公主号邮轮</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>钻石公主号邮轮</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>125</v>
-      </c>
-      <c r="E2" t="n">
-        <v>712</v>
-      </c>
-      <c r="F2" t="n">
-        <v>574</v>
-      </c>
-      <c r="G2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>至尊公主邮轮</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>至尊公主邮轮</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>21</v>
-      </c>
-      <c r="E3" t="n">
-        <v>21</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>continentName</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>countryName</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>provinceName</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>currentConfirmedCount</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>confirmedCount</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>curedCount</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>deadCount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>智利</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>智利</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>5750</v>
-      </c>
-      <c r="E2" t="n">
-        <v>11296</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5386</v>
-      </c>
-      <c r="G2" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>哥伦比亚</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>哥伦比亚</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4065</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4356</v>
-      </c>
-      <c r="F3" t="n">
-        <v>85</v>
-      </c>
-      <c r="G3" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>厄瓜多尔</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>厄瓜多尔</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>9377</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10398</v>
-      </c>
-      <c r="F4" t="n">
-        <v>501</v>
-      </c>
-      <c r="G4" t="n">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>秘鲁</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>秘鲁</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>11693</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19250</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7027</v>
-      </c>
-      <c r="G5" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>委内瑞拉</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>委内瑞拉</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>275</v>
-      </c>
-      <c r="E6" t="n">
-        <v>285</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>苏里南</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>苏里南</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>巴拉圭</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>巴拉圭</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>170</v>
-      </c>
-      <c r="E8" t="n">
-        <v>208</v>
-      </c>
-      <c r="F8" t="n">
-        <v>30</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>玻利维亚</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>玻利维亚</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>564</v>
-      </c>
-      <c r="E9" t="n">
-        <v>598</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>巴西</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>巴西</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>17533</v>
-      </c>
-      <c r="E10" t="n">
-        <v>45757</v>
-      </c>
-      <c r="F10" t="n">
-        <v>25318</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2906</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>阿根廷</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>阿根廷</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2392</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3288</v>
-      </c>
-      <c r="F11" t="n">
-        <v>737</v>
-      </c>
-      <c r="G11" t="n">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>乌拉圭</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>乌拉圭</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>200</v>
-      </c>
-      <c r="E12" t="n">
-        <v>549</v>
-      </c>
-      <c r="F12" t="n">
-        <v>337</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>法属圭亚那</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>法属圭亚那</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>96</v>
-      </c>
-      <c r="E13" t="n">
-        <v>97</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>圭亚那</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>圭亚那</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>51</v>
-      </c>
-      <c r="E14" t="n">
-        <v>67</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>荷兰加勒比地区</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>荷兰加勒比地区</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>福克兰群岛</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>福克兰群岛</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>11</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8127,20 +8194,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Africa sum</t>
+          <t>NA sum</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26693</v>
+        <v>908610</v>
       </c>
       <c r="C2" t="n">
-        <v>6721</v>
+        <v>90605</v>
       </c>
       <c r="D2" t="n">
-        <v>18725</v>
+        <v>767634</v>
       </c>
       <c r="E2" t="n">
-        <v>1247</v>
+        <v>50371</v>
       </c>
     </row>
     <row r="3">
@@ -8165,96 +8232,96 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AU sum</t>
+          <t>SA sum</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8009</v>
+        <v>96175</v>
       </c>
       <c r="C4" t="n">
-        <v>5356</v>
+        <v>39436</v>
       </c>
       <c r="D4" t="n">
-        <v>2556</v>
+        <v>52185</v>
       </c>
       <c r="E4" t="n">
-        <v>97</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>EUR sum</t>
+          <t>other sum</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1135833</v>
+        <v>733</v>
       </c>
       <c r="C5" t="n">
-        <v>362282</v>
+        <v>574</v>
       </c>
       <c r="D5" t="n">
-        <v>661835</v>
+        <v>146</v>
       </c>
       <c r="E5" t="n">
-        <v>111716</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>NA sum</t>
+          <t>Africa sum</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>908610</v>
+        <v>26693</v>
       </c>
       <c r="C6" t="n">
-        <v>90605</v>
+        <v>6721</v>
       </c>
       <c r="D6" t="n">
-        <v>767634</v>
+        <v>18725</v>
       </c>
       <c r="E6" t="n">
-        <v>50371</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>other sum</t>
+          <t>AU sum</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>733</v>
+        <v>8009</v>
       </c>
       <c r="C7" t="n">
-        <v>574</v>
+        <v>5356</v>
       </c>
       <c r="D7" t="n">
-        <v>146</v>
+        <v>2556</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>SA sum</t>
+          <t>EUR sum</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>96175</v>
+        <v>1135833</v>
       </c>
       <c r="C8" t="n">
-        <v>39436</v>
+        <v>362282</v>
       </c>
       <c r="D8" t="n">
-        <v>52185</v>
+        <v>661835</v>
       </c>
       <c r="E8" t="n">
-        <v>4554</v>
+        <v>111716</v>
       </c>
     </row>
   </sheetData>
